--- a/graphs/STM32F/sine/sine.xlsx
+++ b/graphs/STM32F/sine/sine.xlsx
@@ -6,8 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sine_ro_ccm" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sine_ro_flash" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sine_ro_ccm code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sine_ro_ccm code_CCM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sine_ro_flash code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="sine_ro_flash code_CCM" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,32 +464,17 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FLASH 24</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CCM 24</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>FLASH 48</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CCM 48</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FLASH 72</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CCM 72</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -501,19 +488,10 @@
         <v>14858.82164016397</v>
       </c>
       <c r="C2" t="n">
-        <v>12305.75181954948</v>
+        <v>26276.52735272457</v>
       </c>
       <c r="D2" t="n">
-        <v>26276.52735272457</v>
-      </c>
-      <c r="E2" t="n">
-        <v>23999.25700746235</v>
-      </c>
-      <c r="F2" t="n">
         <v>33086.3358412013</v>
-      </c>
-      <c r="G2" t="n">
-        <v>35494.95539909862</v>
       </c>
     </row>
     <row r="3">
@@ -526,19 +504,10 @@
         <v>0.33722</v>
       </c>
       <c r="C3" t="n">
-        <v>0.33708</v>
+        <v>0.18172</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18172</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.16876</v>
-      </c>
-      <c r="F3" t="n">
         <v>0.15574</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.11266</v>
       </c>
     </row>
     <row r="4">
@@ -554,28 +523,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(2185.64, 2522.72)</t>
+          <t>(3502.6, 3684.32)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(3502.6, 3684.32)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(3880.44, 4049.2)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>(5029.16, 5184.9)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>(5381.0, 5493.66)</t>
-        </is>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16535.28305053711</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15757.40281677246</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17004.45761489868</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,32 +570,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>FLASH 24</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>CCM 24</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>FLASH 48</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>CCM 48</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>FLASH 72</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>CCM 72</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -636,22 +591,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15336.64656316005</v>
+        <v>12305.75181954948</v>
       </c>
       <c r="C2" t="n">
-        <v>12964.45842822822</v>
+        <v>23999.25700746235</v>
       </c>
       <c r="D2" t="n">
-        <v>24211.60312461281</v>
-      </c>
-      <c r="E2" t="n">
-        <v>24384.61407855028</v>
-      </c>
-      <c r="F2" t="n">
-        <v>31007.37239386874</v>
-      </c>
-      <c r="G2" t="n">
-        <v>34819.68339313614</v>
+        <v>35494.95539909862</v>
       </c>
     </row>
     <row r="3">
@@ -661,22 +607,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.33726</v>
+        <v>0.33708</v>
       </c>
       <c r="C3" t="n">
-        <v>0.33706</v>
+        <v>0.16876</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2333</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.18168</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.19904</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.12996</v>
+        <v>0.11266</v>
       </c>
     </row>
     <row r="4">
@@ -687,33 +624,246 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>(2185.64, 2522.72)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(3880.44, 4049.2)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(5381.0, 5493.66)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13688.47531700134</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13365.37822151184</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13196.24352836609</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>15336.64656316005</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24211.60312461281</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31007.37239386874</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.33726</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2333</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19904</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>(1599.92, 1937.18)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>(3450.14, 3683.44)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(5040.64, 5239.68)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>17069.04348564148</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18640.27112960815</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20366.63442420959</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12964.45842822822</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24384.61407855028</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34819.68339313614</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.33706</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.18168</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12996</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>(2133.34, 2470.4)</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(3879.48, 4061.16)</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(3450.14, 3683.44)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(3879.48, 4061.16)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(5040.64, 5239.68)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
           <t>(5435.74, 5565.7)</t>
         </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14420.34118080139</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14619.64906311035</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14933.04797744751</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/STM32F/sine/sine.xlsx
+++ b/graphs/STM32F/sine/sine.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sine_ro_ccm code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sine_ro_ccm code_CCM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sine_ro_flash code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sine_ro_flash code_CCM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ro_CCM code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ro_CCM code_CCM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ro_FLASH code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ro_FLASH code_CCM" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -485,13 +485,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14858.82164016397</v>
+        <v>14859</v>
       </c>
       <c r="C2" t="n">
-        <v>26276.52735272457</v>
+        <v>26277</v>
       </c>
       <c r="D2" t="n">
-        <v>33086.3358412013</v>
+        <v>33086</v>
       </c>
     </row>
     <row r="3">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16535.28305053711</v>
+        <v>16.535</v>
       </c>
       <c r="C5" t="n">
-        <v>15757.40281677246</v>
+        <v>15.758</v>
       </c>
       <c r="D5" t="n">
-        <v>17004.45761489868</v>
+        <v>17.004</v>
       </c>
     </row>
   </sheetData>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12305.75181954948</v>
+        <v>12306</v>
       </c>
       <c r="C2" t="n">
-        <v>23999.25700746235</v>
+        <v>23999</v>
       </c>
       <c r="D2" t="n">
-        <v>35494.95539909862</v>
+        <v>35495</v>
       </c>
     </row>
     <row r="3">
@@ -645,13 +645,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13688.47531700134</v>
+        <v>13.689</v>
       </c>
       <c r="C5" t="n">
-        <v>13365.37822151184</v>
+        <v>13.365</v>
       </c>
       <c r="D5" t="n">
-        <v>13196.24352836609</v>
+        <v>13.196</v>
       </c>
     </row>
   </sheetData>
@@ -697,13 +697,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15336.64656316005</v>
+        <v>15337</v>
       </c>
       <c r="C2" t="n">
-        <v>24211.60312461281</v>
+        <v>24212</v>
       </c>
       <c r="D2" t="n">
-        <v>31007.37239386874</v>
+        <v>31007</v>
       </c>
     </row>
     <row r="3">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17069.04348564148</v>
+        <v>17.069</v>
       </c>
       <c r="C5" t="n">
-        <v>18640.27112960815</v>
+        <v>18.641</v>
       </c>
       <c r="D5" t="n">
-        <v>20366.63442420959</v>
+        <v>20.366</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12964.45842822822</v>
+        <v>12964</v>
       </c>
       <c r="C2" t="n">
-        <v>24384.61407855028</v>
+        <v>24385</v>
       </c>
       <c r="D2" t="n">
-        <v>34819.68339313614</v>
+        <v>34820</v>
       </c>
     </row>
     <row r="3">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14420.34118080139</v>
+        <v>14.42</v>
       </c>
       <c r="C5" t="n">
-        <v>14619.64906311035</v>
+        <v>14.62</v>
       </c>
       <c r="D5" t="n">
-        <v>14933.04797744751</v>
+        <v>14.933</v>
       </c>
     </row>
   </sheetData>

--- a/graphs/STM32F/sine/sine.xlsx
+++ b/graphs/STM32F/sine/sine.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ro_CCM code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ro_CCM code_CCM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ro_FLASH code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ro_FLASH code_CCM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ro_CCM-code_FLASH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ro_CCM-code_CCM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ro_FLASH-code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ro_FLASH-code_CCM" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/graphs/STM32F/sine/sine.xlsx
+++ b/graphs/STM32F/sine/sine.xlsx
@@ -10,6 +10,8 @@
     <sheet name="ro_CCM-code_CCM" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ro_FLASH-code_FLASH" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="ro_FLASH-code_CCM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ro_RAM-code_FLASH" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ro_RAM-code_CCM" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,24 +464,24 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>intensity</t>
         </is>
@@ -495,7 +497,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>runtime</t>
         </is>
@@ -511,7 +513,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
@@ -533,7 +535,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>energy</t>
         </is>
@@ -869,4 +871,216 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>14992</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26643</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33958</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.33726</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.18166</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15584</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(1581.52, 1918.78)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(3427.48, 3609.14)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(4949.36, 5105.2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16.685</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15.972</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.464</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>intensity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12297</v>
+      </c>
+      <c r="C2" t="n">
+        <v>24223</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36222</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.33694</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.16872</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1128</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(2114.38, 2451.32)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(3804.48, 3973.2)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(5300.54, 5413.34)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>energy</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13.673</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.487</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.483</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>